--- a/decomposition/roadSigns.xlsx
+++ b/decomposition/roadSigns.xlsx
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3695,7 +3695,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B233" t="s">
@@ -3917,6 +3917,7 @@
     <hyperlink ref="A101" r:id="rId10"/>
     <hyperlink ref="A106" r:id="rId11"/>
     <hyperlink ref="A178" r:id="rId12"/>
+    <hyperlink ref="A233" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
